--- a/pred_result/test_1_13_expert.xlsx
+++ b/pred_result/test_1_13_expert.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B02719F-BC92-4A60-B396-4BBB58DB178C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0474D744-2401-4A2B-9F77-DC17C21C1AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9396" windowHeight="8280" xr2:uid="{87F4ED7F-EF47-4E0E-A797-329EFA624F66}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_1_13_expert" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="15">
   <si>
     <t>E_list</t>
   </si>
@@ -51,12 +56,27 @@
   <si>
     <t>ab_per</t>
   </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>entropy_ave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,333 +85,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -399,204 +102,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,14 +421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D364"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F481244-3F69-4DA5-BF1C-5FAD371E24DC}">
+  <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K362"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>17.785563219161201</v>
       </c>
@@ -941,8 +457,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>9.9652974055973509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>19.732595103127601</v>
       </c>
@@ -955,8 +477,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5.7049911989262601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>15.4816779295603</v>
       </c>
@@ -969,8 +497,14 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>6.1961171018297199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>18.630954413186899</v>
       </c>
@@ -983,8 +517,14 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10.0109621735006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>20.0840014957246</v>
       </c>
@@ -997,8 +537,14 @@
       <c r="D6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6.8777218153287798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>15.800406910124201</v>
       </c>
@@ -1011,8 +557,14 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.8599628953177201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>17.856264602570299</v>
       </c>
@@ -1025,8 +577,14 @@
       <c r="D8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>11.5683071484022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>19.5362821192968</v>
       </c>
@@ -1039,8 +597,14 @@
       <c r="D9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>10.6791835242913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>14.091190519787</v>
       </c>
@@ -1053,8 +617,14 @@
       <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3.14158878117264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>17.187001750582699</v>
       </c>
@@ -1067,8 +637,14 @@
       <c r="D11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>12.0175320216212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>20.143359649749002</v>
       </c>
@@ -1081,8 +657,14 @@
       <c r="D12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>6.15881795322806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>15.260893781979799</v>
       </c>
@@ -1095,8 +677,14 @@
       <c r="D13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>4.2184636297154299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>18.0120635827382</v>
       </c>
@@ -1109,8 +697,14 @@
       <c r="D14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>11.1197788973277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>21.598653305144499</v>
       </c>
@@ -1123,8 +717,14 @@
       <c r="D15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>8.1003270617190299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14.966904413132401</v>
       </c>
@@ -1137,8 +737,14 @@
       <c r="D16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3.87038545987176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16.0870125066666</v>
       </c>
@@ -1151,8 +757,14 @@
       <c r="D17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>12.571849757671901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17.6109124365307</v>
       </c>
@@ -1165,8 +777,14 @@
       <c r="D18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>8.9538070865381005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>13.849927300498599</v>
       </c>
@@ -1179,8 +797,14 @@
       <c r="D19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.2809969101446801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18.676933810824401</v>
       </c>
@@ -1193,8 +817,14 @@
       <c r="D20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>14.006281487109799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20.813731341134901</v>
       </c>
@@ -1207,8 +837,14 @@
       <c r="D21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>6.7767107925790802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>15.115700386819301</v>
       </c>
@@ -1221,8 +857,14 @@
       <c r="D22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>-3.34145705653386E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>18.153832764852599</v>
       </c>
@@ -1235,8 +877,14 @@
       <c r="D23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>12.6374291162945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>20.2500406901041</v>
       </c>
@@ -1249,8 +897,14 @@
       <c r="D24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>6.8556899030793996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>14.920909347988299</v>
       </c>
@@ -1263,8 +917,14 @@
       <c r="D25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>9.2984815823181605E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>18.9103259699685</v>
       </c>
@@ -1277,8 +937,14 @@
       <c r="D26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>12.1470572719304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>20.247669776280699</v>
       </c>
@@ -1291,8 +957,14 @@
       <c r="D27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>6.7605306758112098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>14.1622576259431</v>
       </c>
@@ -1305,8 +977,14 @@
       <c r="D28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2.12127299872706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>17.611693439029501</v>
       </c>
@@ -1319,8 +997,14 @@
       <c r="D29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>12.988965477151099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>20.658922354380199</v>
       </c>
@@ -1333,8 +1017,14 @@
       <c r="D30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>9.5153912778301102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>13.9544496876852</v>
       </c>
@@ -1347,8 +1037,14 @@
       <c r="D31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1.73134512461719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>18.863159713290901</v>
       </c>
@@ -1361,8 +1057,14 @@
       <c r="D32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>12.8940690677133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>19.090682983398398</v>
       </c>
@@ -1375,8 +1077,14 @@
       <c r="D33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>10.466889427788299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>14.698217250051901</v>
       </c>
@@ -1389,8 +1097,14 @@
       <c r="D34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2.12235930629633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>19.0149885472797</v>
       </c>
@@ -1403,8 +1117,14 @@
       <c r="D35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>12.461833477368501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>20.158949341092701</v>
       </c>
@@ -1417,8 +1137,14 @@
       <c r="D36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>8.2922837841133994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>15.545350631078</v>
       </c>
@@ -1431,8 +1157,14 @@
       <c r="D37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>4.5335955868962197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>19.108337084452302</v>
       </c>
@@ -1445,8 +1177,14 @@
       <c r="D38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>12.0770363900194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>21.2541402748652</v>
       </c>
@@ -1459,8 +1197,14 @@
       <c r="D39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>13.4888463766704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>14.853078302882899</v>
       </c>
@@ -1473,8 +1217,14 @@
       <c r="D40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4.4062620450412204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>21.110678071067401</v>
       </c>
@@ -1487,8 +1237,14 @@
       <c r="D41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>10.199194391516301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>14.4378360964003</v>
       </c>
@@ -1501,8 +1257,14 @@
       <c r="D42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>3.28524053750973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>18.3366380191984</v>
       </c>
@@ -1515,8 +1277,14 @@
       <c r="D43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>13.8839779454172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>20.5627202306474</v>
       </c>
@@ -1529,8 +1297,14 @@
       <c r="D44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>8.0343701063288506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>14.912342202095701</v>
       </c>
@@ -1543,8 +1317,14 @@
       <c r="D45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3.4858910445706499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>18.201711824962</v>
       </c>
@@ -1557,8 +1337,14 @@
       <c r="D46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>14.6549616966801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>19.528556142534502</v>
       </c>
@@ -1571,8 +1357,14 @@
       <c r="D47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>10.9972311059584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>15.2630481549671</v>
       </c>
@@ -1585,8 +1377,14 @@
       <c r="D48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3.6678499573635399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>18.578124988646699</v>
       </c>
@@ -1599,8 +1397,14 @@
       <c r="D49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>12.8534262371994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>19.7237935633886</v>
       </c>
@@ -1613,8 +1417,14 @@
       <c r="D50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>9.4638250893997995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>14.8274806283769</v>
       </c>
@@ -1627,8 +1437,14 @@
       <c r="D51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>3.0179103644386802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>12.71398184413</v>
       </c>
@@ -1641,8 +1457,14 @@
       <c r="D52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>16.222508863810202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>14.9050452709198</v>
       </c>
@@ -1655,8 +1477,14 @@
       <c r="D53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>7.65346822853465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>12.819178365525699</v>
       </c>
@@ -1669,8 +1497,14 @@
       <c r="D54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>6.9940931295849396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>6.3922969046093101</v>
       </c>
@@ -1683,8 +1517,14 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>-6.1588474836098597E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>16.171289873393601</v>
       </c>
@@ -1697,8 +1537,14 @@
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>-2.63678375852284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>19.085780575161799</v>
       </c>
@@ -1711,8 +1557,14 @@
       <c r="D57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>0.102917758820885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>19.0928177492959</v>
       </c>
@@ -1725,8 +1577,14 @@
       <c r="D58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3.8276130264315298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>23.163578498931098</v>
       </c>
@@ -1739,8 +1597,14 @@
       <c r="D59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>8.5961624929552798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>18.577470722652599</v>
       </c>
@@ -1753,8 +1617,14 @@
       <c r="D60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>8.7366669527740406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>7.4022334530240004</v>
       </c>
@@ -1767,8 +1637,14 @@
       <c r="D61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>0.144301385958444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>17.267739863622701</v>
       </c>
@@ -1781,8 +1657,14 @@
       <c r="D62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>8.8256084040307297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>7.6729235308510901</v>
       </c>
@@ -1795,8 +1677,14 @@
       <c r="D63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>2.3571518296157201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>19.490988993081501</v>
       </c>
@@ -1809,8 +1697,14 @@
       <c r="D64">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>19.5382574878569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>5.8880460829961798</v>
       </c>
@@ -1823,8 +1717,14 @@
       <c r="D65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>14.3323030032999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>10.4805905704083</v>
       </c>
@@ -1837,8 +1737,14 @@
       <c r="D66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1.91308594843646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>5.3192275095382104</v>
       </c>
@@ -1851,8 +1757,14 @@
       <c r="D67">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>-4.1181289481328802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>18.757807595389199</v>
       </c>
@@ -1865,8 +1777,14 @@
       <c r="D68">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>13.0111753303556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>17.8050097404134</v>
       </c>
@@ -1879,8 +1797,14 @@
       <c r="D69">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>-1.28153192835001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>22.533921525591801</v>
       </c>
@@ -1893,8 +1817,14 @@
       <c r="D70">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>6.1497944756575702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>21.793630985986599</v>
       </c>
@@ -1907,8 +1837,14 @@
       <c r="D71">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>8.2336459710033196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>23.853690692356601</v>
       </c>
@@ -1921,8 +1857,14 @@
       <c r="D72">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>5.9629247795059301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>19.0664123921167</v>
       </c>
@@ -1935,8 +1877,14 @@
       <c r="D73">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>7.6470671842925402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>18.4561789361567</v>
       </c>
@@ -1949,8 +1897,14 @@
       <c r="D74">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>2.6309980930849801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>16.597550449295699</v>
       </c>
@@ -1963,8 +1917,14 @@
       <c r="D75">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>6.6683568466391199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>16.245449043455501</v>
       </c>
@@ -1977,8 +1937,14 @@
       <c r="D76">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>13.3130877440862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>6.9953254745119997</v>
       </c>
@@ -1991,8 +1957,14 @@
       <c r="D77">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>12.544009281303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>6.3353498776753696</v>
       </c>
@@ -2005,8 +1977,14 @@
       <c r="D78">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>9.8613284497585099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>11.1507635498004</v>
       </c>
@@ -2019,8 +1997,14 @@
       <c r="D79">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>5.1989506175905502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>4.31636064658389</v>
       </c>
@@ -2033,8 +2017,14 @@
       <c r="D80">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>-4.4324435742214998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>19.772192966370302</v>
       </c>
@@ -2047,8 +2037,14 @@
       <c r="D81">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>12.251984140479999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>12.715813137235999</v>
       </c>
@@ -2061,8 +2057,14 @@
       <c r="D82">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>2.8601672632229098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>22.0521356945946</v>
       </c>
@@ -2075,8 +2077,14 @@
       <c r="D83">
         <v>28</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>5.7270599990645401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>21.3294665699913</v>
       </c>
@@ -2089,8 +2097,14 @@
       <c r="D84">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>5.6151758232620601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>23.535422415960401</v>
       </c>
@@ -2103,8 +2117,14 @@
       <c r="D85">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>6.0662917862261398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>17.417205992199101</v>
       </c>
@@ -2117,8 +2137,14 @@
       <c r="D86">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>13.851506762014401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>7.3566751667614696</v>
       </c>
@@ -2131,8 +2157,14 @@
       <c r="D87">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>7.5975881087314701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>7.2969284408034802</v>
       </c>
@@ -2145,8 +2177,14 @@
       <c r="D88">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>10.24810153752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>19.340592475164499</v>
       </c>
@@ -2159,8 +2197,14 @@
       <c r="D89">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>11.3420364555123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>6.81234725316365</v>
       </c>
@@ -2173,8 +2217,14 @@
       <c r="D90">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>-2.9183015671526098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>7.6790932246616901</v>
       </c>
@@ -2187,8 +2237,14 @@
       <c r="D91">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>14.945999952650199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>6.3446411632356101</v>
       </c>
@@ -2201,8 +2257,14 @@
       <c r="D92">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>9.6888386312430494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>10.2211233929406</v>
       </c>
@@ -2215,8 +2277,14 @@
       <c r="D93">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>2.7816294563441502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>4.87196580545465</v>
       </c>
@@ -2229,8 +2297,14 @@
       <c r="D94">
         <v>39</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>5.3279061831368999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>18.055628231593499</v>
       </c>
@@ -2243,8 +2317,14 @@
       <c r="D95">
         <v>40</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>16.430477317368599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>12.9298665182931</v>
       </c>
@@ -2257,8 +2337,14 @@
       <c r="D96">
         <v>41</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>6.4811328747992603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>22.379932676042799</v>
       </c>
@@ -2271,8 +2357,14 @@
       <c r="D97">
         <v>42</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>7.3292773047473201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>20.9533948217119</v>
       </c>
@@ -2285,8 +2377,14 @@
       <c r="D98">
         <v>43</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>7.8897269981536597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>23.441445248467499</v>
       </c>
@@ -2299,8 +2397,14 @@
       <c r="D99">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>8.8706825050343294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>17.916670356478001</v>
       </c>
@@ -2313,8 +2417,14 @@
       <c r="D100">
         <v>45</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>13.5849068613631</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>12.2560367924826</v>
       </c>
@@ -2327,8 +2437,14 @@
       <c r="D101">
         <v>46</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>9.6543826718045</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>14.803079412097</v>
       </c>
@@ -2341,8 +2457,14 @@
       <c r="D102">
         <v>47</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>11.1533480944997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>17.108231953212101</v>
       </c>
@@ -2355,8 +2477,14 @@
       <c r="D103">
         <v>48</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>17.281081943140801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>6.0481911159696997</v>
       </c>
@@ -2369,8 +2497,14 @@
       <c r="D104">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>6.6131972671845896</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>14.957152885600101</v>
       </c>
@@ -2383,8 +2517,14 @@
       <c r="D105">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>11.134424652834999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>6.7796574547177197</v>
       </c>
@@ -2397,8 +2537,14 @@
       <c r="D106">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>9.1071737152007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>10.7793754178784</v>
       </c>
@@ -2411,8 +2557,14 @@
       <c r="D107">
         <v>52</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>3.4450601934603098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>4.3195732345664197</v>
       </c>
@@ -2425,8 +2577,14 @@
       <c r="D108">
         <v>53</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>4.00140356468793</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>19.284758420217599</v>
       </c>
@@ -2439,8 +2597,14 @@
       <c r="D109">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>18.192488406742701</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>13.718763113021801</v>
       </c>
@@ -2453,8 +2617,14 @@
       <c r="D110">
         <v>55</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>7.7136106311277004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>22.205557539349499</v>
       </c>
@@ -2467,8 +2637,14 @@
       <c r="D111">
         <v>56</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>7.9576323286759703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>20.653115624473202</v>
       </c>
@@ -2481,8 +2657,14 @@
       <c r="D112">
         <v>57</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>5.6417249672032996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>23.696890796933801</v>
       </c>
@@ -2495,8 +2677,14 @@
       <c r="D113">
         <v>58</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>6.1674262289118396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>18.125102111271399</v>
       </c>
@@ -2509,8 +2697,14 @@
       <c r="D114">
         <v>59</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>11.591144182729201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>18.821566679533099</v>
       </c>
@@ -2523,8 +2717,14 @@
       <c r="D115">
         <v>60</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>-1.00319373957793</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>7.1673105444226897</v>
       </c>
@@ -2537,8 +2737,14 @@
       <c r="D116">
         <v>61</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>6.9210579880176697</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>19.351595072519199</v>
       </c>
@@ -2551,8 +2757,14 @@
       <c r="D117">
         <v>62</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>12.9669382187908</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>14.262508350184699</v>
       </c>
@@ -2565,8 +2777,14 @@
       <c r="D118">
         <v>63</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>-5.4552127644795201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>6.6309560367039202</v>
       </c>
@@ -2579,8 +2797,14 @@
       <c r="D119">
         <v>64</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>5.1116139713387296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>17.0153541337876</v>
       </c>
@@ -2593,8 +2817,14 @@
       <c r="D120">
         <v>65</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>24.680037297378298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>7.5331643990107899</v>
       </c>
@@ -2607,8 +2837,14 @@
       <c r="D121">
         <v>66</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>10.619379193757201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>13.2239923590705</v>
       </c>
@@ -2621,8 +2857,14 @@
       <c r="D122">
         <v>67</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2.8683387286542801</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>6.57467906688884</v>
       </c>
@@ -2635,8 +2877,14 @@
       <c r="D123">
         <v>68</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>5.0494163506858403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>19.351458538146201</v>
       </c>
@@ -2649,8 +2897,14 @@
       <c r="D124">
         <v>69</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>16.1378138081045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>14.350519146238</v>
       </c>
@@ -2663,8 +2917,14 @@
       <c r="D125">
         <v>70</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>8.5462255336962691</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>22.8539110933031</v>
       </c>
@@ -2677,8 +2937,14 @@
       <c r="D126">
         <v>71</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>6.8456070729886296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>22.433626958302</v>
       </c>
@@ -2691,8 +2957,14 @@
       <c r="D127">
         <v>72</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>6.5516451887817002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>23.361317441577</v>
       </c>
@@ -2705,8 +2977,14 @@
       <c r="D128">
         <v>73</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>5.3877492602251396</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>16.504097484406898</v>
       </c>
@@ -2719,8 +2997,14 @@
       <c r="D129">
         <v>74</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>12.4664423642943</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>17.4296527269249</v>
       </c>
@@ -2733,8 +3017,14 @@
       <c r="D130">
         <v>75</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>4.1008495724182197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>18.5298197496505</v>
       </c>
@@ -2747,8 +3037,14 @@
       <c r="D131">
         <v>76</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>7.72038924697884</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>7.64654869125002</v>
       </c>
@@ -2761,8 +3057,14 @@
       <c r="D132">
         <v>77</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>-7.1738539312952998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>6.2854339508783204</v>
       </c>
@@ -2775,8 +3077,14 @@
       <c r="D133">
         <v>78</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>10.543141871157101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>19.043351377759599</v>
       </c>
@@ -2789,8 +3097,14 @@
       <c r="D134">
         <v>79</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>26.091812730235802</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>5.87458946591331</v>
       </c>
@@ -2803,8 +3117,14 @@
       <c r="D135">
         <v>80</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>7.3389181634827798</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>12.0165639161904</v>
       </c>
@@ -2817,8 +3137,14 @@
       <c r="D136">
         <v>81</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>3.7372409657960999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>5.6648611980183103</v>
       </c>
@@ -2831,8 +3157,14 @@
       <c r="D137">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>4.6045296896438304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>18.751595406305199</v>
       </c>
@@ -2845,8 +3177,14 @@
       <c r="D138">
         <v>83</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>13.288062476734</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>12.196858599072399</v>
       </c>
@@ -2859,8 +3197,14 @@
       <c r="D139">
         <v>84</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>14.657728847642399</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>22.460564068385501</v>
       </c>
@@ -2873,8 +3217,14 @@
       <c r="D140">
         <v>85</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>9.8747325097486396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>22.983738683518901</v>
       </c>
@@ -2887,8 +3237,14 @@
       <c r="D141">
         <v>86</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>5.5744994718321399</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>23.740653719220798</v>
       </c>
@@ -2901,8 +3257,14 @@
       <c r="D142">
         <v>87</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>6.7191533915263797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>19.523694901239299</v>
       </c>
@@ -2915,8 +3277,14 @@
       <c r="D143">
         <v>88</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>12.6489166529387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>15.453227289035899</v>
       </c>
@@ -2929,8 +3297,14 @@
       <c r="D144">
         <v>89</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>6.3976579068322597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>18.094131481079799</v>
       </c>
@@ -2943,8 +3317,14 @@
       <c r="D145">
         <v>90</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>9.3985318461247793</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>7.2963398411160396</v>
       </c>
@@ -2957,8 +3337,14 @@
       <c r="D146">
         <v>91</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>-4.84631214125202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>7.3880638395036904</v>
       </c>
@@ -2971,8 +3357,14 @@
       <c r="D147">
         <v>92</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>13.8180890873116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>19.234481153034</v>
       </c>
@@ -2985,8 +3377,14 @@
       <c r="D148">
         <v>93</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>25.0085504493989</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>7.0258570739201103</v>
       </c>
@@ -2999,8 +3397,14 @@
       <c r="D149">
         <v>94</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>10.3299967929666</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>12.847892647697799</v>
       </c>
@@ -3013,8 +3417,14 @@
       <c r="D150">
         <v>95</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>2.0998670641318902</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>12.796279657454701</v>
       </c>
@@ -3027,8 +3437,14 @@
       <c r="D151">
         <v>96</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="H151">
+        <v>3.5535464313937002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>18.664881104514699</v>
       </c>
@@ -3041,8 +3457,14 @@
       <c r="D152">
         <v>97</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>13.453752410526899</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>13.744193803696399</v>
       </c>
@@ -3055,8 +3477,14 @@
       <c r="D153">
         <v>98</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>10.5753625790552</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>19.9204521633329</v>
       </c>
@@ -3069,8 +3497,14 @@
       <c r="D154">
         <v>99</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>15.5937567128168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>20.572501239322399</v>
       </c>
@@ -3083,8 +3517,14 @@
       <c r="D155">
         <v>100</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>9.9140202002379407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>23.0599504879542</v>
       </c>
@@ -3097,8 +3537,14 @@
       <c r="D156">
         <v>101</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>6.6520295667551199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>18.405318044480801</v>
       </c>
@@ -3111,8 +3557,14 @@
       <c r="D157">
         <v>102</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>10.6903985966653</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>17.3276879401642</v>
       </c>
@@ -3125,8 +3577,14 @@
       <c r="D158">
         <v>103</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>4.9304972060103802</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>17.725178763979901</v>
       </c>
@@ -3139,8 +3597,14 @@
       <c r="D159">
         <v>104</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>11.7874333756571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>6.00759359768458</v>
       </c>
@@ -3153,8 +3617,14 @@
       <c r="D160">
         <v>105</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>-1.9521854089718</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>17.9603779289857</v>
       </c>
@@ -3167,8 +3637,14 @@
       <c r="D161">
         <v>106</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>17.317239616275899</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>7.0575956844148102</v>
       </c>
@@ -3181,8 +3657,14 @@
       <c r="D162">
         <v>107</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>11.604922102954999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>13.1966607570648</v>
       </c>
@@ -3195,8 +3677,14 @@
       <c r="D163">
         <v>108</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>3.99847425805737</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>5.9816408513850901</v>
       </c>
@@ -3209,8 +3697,14 @@
       <c r="D164">
         <v>109</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>-2.0821590664363301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>16.404234409332201</v>
       </c>
@@ -3223,8 +3717,14 @@
       <c r="D165">
         <v>110</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>17.7843413797697</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>15.075280144101001</v>
       </c>
@@ -3237,8 +3737,14 @@
       <c r="D166">
         <v>111</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>13.9967553766524</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>24.224154642649999</v>
       </c>
@@ -3251,8 +3757,14 @@
       <c r="D167">
         <v>112</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>16.348987630726</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>22.893503030141101</v>
       </c>
@@ -3265,8 +3777,14 @@
       <c r="D168">
         <v>113</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>14.1940911552771</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>23.750855037144198</v>
       </c>
@@ -3279,8 +3797,14 @@
       <c r="D169">
         <v>114</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>9.3626390194761804</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>18.787652288164399</v>
       </c>
@@ -3293,8 +3817,14 @@
       <c r="D170">
         <v>115</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>12.424767823476801</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>19.7710757688642</v>
       </c>
@@ -3307,8 +3837,14 @@
       <c r="D171">
         <v>116</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>0.49246969283720698</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>18.851625817162599</v>
       </c>
@@ -3321,8 +3857,14 @@
       <c r="D172">
         <v>117</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>12.5396089959458</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>6.9051670233408604</v>
       </c>
@@ -3335,8 +3877,14 @@
       <c r="D173">
         <v>118</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>-3.8282600683806001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>7.6096483639308303</v>
       </c>
@@ -3349,8 +3897,14 @@
       <c r="D174">
         <v>119</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="H174">
+        <v>12.8352552115965</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>12.850281318028699</v>
       </c>
@@ -3363,8 +3917,14 @@
       <c r="D175">
         <v>120</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>6.1984001979025196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>5.7175581877211901</v>
       </c>
@@ -3377,8 +3937,14 @@
       <c r="D176">
         <v>121</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>5.6010438444244501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>18.877920911425601</v>
       </c>
@@ -3391,8 +3957,14 @@
       <c r="D177">
         <v>122</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>14.573472637477</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>13.881487698781999</v>
       </c>
@@ -3405,8 +3977,14 @@
       <c r="D178">
         <v>123</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>8.9377844507981994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>22.3034497215634</v>
       </c>
@@ -3419,8 +3997,14 @@
       <c r="D179">
         <v>124</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>4.7645525299877098</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>21.9715269747234</v>
       </c>
@@ -3433,8 +4017,14 @@
       <c r="D180">
         <v>125</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>8.4603915833433696</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>22.956964549564098</v>
       </c>
@@ -3447,8 +4037,14 @@
       <c r="D181">
         <v>126</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>7.72640863657137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>19.013050896780801</v>
       </c>
@@ -3461,8 +4057,14 @@
       <c r="D182">
         <v>127</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>13.060205220398601</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>19.910624109756998</v>
       </c>
@@ -3475,8 +4077,14 @@
       <c r="D183">
         <v>128</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <v>-1.6923614887540499</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>18.285577603748798</v>
       </c>
@@ -3489,8 +4097,14 @@
       <c r="D184">
         <v>129</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>11.5114214601725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>6.9978538013639904</v>
       </c>
@@ -3503,8 +4117,14 @@
       <c r="D185">
         <v>130</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <v>2.44198820368277</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>18.0720654035756</v>
       </c>
@@ -3517,8 +4137,14 @@
       <c r="D186">
         <v>131</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>15.4984908675186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>5.09203253473554</v>
       </c>
@@ -3531,8 +4157,14 @@
       <c r="D187">
         <v>132</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>12.695605442307301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>13.5917293911888</v>
       </c>
@@ -3545,8 +4177,14 @@
       <c r="D188">
         <v>133</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>9.6651228031559295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>6.1482794079925602</v>
       </c>
@@ -3559,8 +4197,14 @@
       <c r="D189">
         <v>134</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>3.2772032946129399</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>19.353196189517</v>
       </c>
@@ -3573,8 +4217,14 @@
       <c r="D190">
         <v>135</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>14.032800991974799</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>15.5840932755243</v>
       </c>
@@ -3587,8 +4237,14 @@
       <c r="D191">
         <v>136</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>10.4631705043791</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>22.093883866355501</v>
       </c>
@@ -3601,8 +4257,14 @@
       <c r="D192">
         <v>137</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>7.1476541421778101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>22.068968148458499</v>
       </c>
@@ -3615,8 +4277,14 @@
       <c r="D193">
         <v>138</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>7.3582559839572097</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>22.417837256476901</v>
       </c>
@@ -3629,8 +4297,14 @@
       <c r="D194">
         <v>139</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>7.9460417472357703</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>19.595549288250101</v>
       </c>
@@ -3643,8 +4317,14 @@
       <c r="D195">
         <v>140</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>11.5495119413754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>18.632095155261801</v>
       </c>
@@ -3657,8 +4337,14 @@
       <c r="D196">
         <v>141</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>13.1063411536743</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>7.3262613046736904</v>
       </c>
@@ -3671,8 +4357,14 @@
       <c r="D197">
         <v>142</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>-4.8690255509743103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>18.031092595048001</v>
       </c>
@@ -3685,8 +4377,14 @@
       <c r="D198">
         <v>143</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <v>17.026330958368199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>7.5418354329608697</v>
       </c>
@@ -3699,8 +4397,14 @@
       <c r="D199">
         <v>144</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>12.937147538834999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>13.4749363263448</v>
       </c>
@@ -3713,8 +4417,14 @@
       <c r="D200">
         <v>145</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>8.4788980254846802</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>7.3018346200412596</v>
       </c>
@@ -3727,8 +4437,14 @@
       <c r="D201">
         <v>146</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>7.3267119887776904</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>20.100306193033799</v>
       </c>
@@ -3741,8 +4457,14 @@
       <c r="D202">
         <v>147</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>15.1779507751856</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>15.1592965807233</v>
       </c>
@@ -3755,8 +4477,14 @@
       <c r="D203">
         <v>148</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>7.1387874232617001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>22.032064210800801</v>
       </c>
@@ -3769,8 +4497,14 @@
       <c r="D204">
         <v>149</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>9.25990315996399</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>22.302722442717702</v>
       </c>
@@ -3783,8 +4517,14 @@
       <c r="D205">
         <v>150</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>9.5454730336931508</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>23.2915124666123</v>
       </c>
@@ -3797,8 +4537,14 @@
       <c r="D206">
         <v>151</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>5.8985498624371502</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>18.377774919782301</v>
       </c>
@@ -3811,8 +4557,14 @@
       <c r="D207">
         <v>152</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>10.5173617116416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>18.281056937717199</v>
       </c>
@@ -3825,8 +4577,14 @@
       <c r="D208">
         <v>153</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>13.7491847141174</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>7.5221145720708904</v>
       </c>
@@ -3839,8 +4597,14 @@
       <c r="D209">
         <v>154</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="H209">
+        <v>-4.00200737690436</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>17.2063370836008</v>
       </c>
@@ -3853,8 +4617,14 @@
       <c r="D210">
         <v>155</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="F210">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>15.535651497047301</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>13.422770942960399</v>
       </c>
@@ -3867,8 +4637,14 @@
       <c r="D211">
         <v>156</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>8.9412684912918401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>4.8998978400408602</v>
       </c>
@@ -3881,8 +4657,14 @@
       <c r="D212">
         <v>157</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>9.3650280226201694</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>18.387563205900602</v>
       </c>
@@ -3895,8 +4677,14 @@
       <c r="D213">
         <v>158</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>13.410969601875401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>14.5264517239161</v>
       </c>
@@ -3909,8 +4697,14 @@
       <c r="D214">
         <v>159</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>8.2802990796573201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>23.802132617859598</v>
       </c>
@@ -3923,8 +4717,14 @@
       <c r="D215">
         <v>160</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>14.1523315572435</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>24.241589364551299</v>
       </c>
@@ -3937,8 +4737,14 @@
       <c r="D216">
         <v>161</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>8.8430306140568593</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>23.495576188677799</v>
       </c>
@@ -3951,8 +4757,14 @@
       <c r="D217">
         <v>162</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>7.8533664959700804</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>19.233502717245099</v>
       </c>
@@ -3965,8 +4777,14 @@
       <c r="D218">
         <v>163</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>11.9145123011421</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>18.140744515827699</v>
       </c>
@@ -3979,8 +4797,14 @@
       <c r="D219">
         <v>164</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>11.1878934281164</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>7.06199347405206</v>
       </c>
@@ -3993,8 +4817,14 @@
       <c r="D220">
         <v>165</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>-4.1365940584650902</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>14.498453639802401</v>
       </c>
@@ -4007,8 +4837,14 @@
       <c r="D221">
         <v>166</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>7.3005021909740497</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>7.3270873993715799</v>
       </c>
@@ -4021,8 +4857,14 @@
       <c r="D222">
         <v>167</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>11.158999324095999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>18.6773244766961</v>
       </c>
@@ -4035,8 +4877,14 @@
       <c r="D223">
         <v>168</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>18.046057966365399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>14.681630690892501</v>
       </c>
@@ -4049,8 +4897,14 @@
       <c r="D224">
         <v>169</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>8.3070627700038493</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>22.450595503761601</v>
       </c>
@@ -4063,8 +4917,14 @@
       <c r="D225">
         <v>170</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>9.8392442155384607</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>23.716021889731898</v>
       </c>
@@ -4077,8 +4937,14 @@
       <c r="D226">
         <v>171</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>7.2127247164731498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>22.760390349796801</v>
       </c>
@@ -4091,8 +4957,14 @@
       <c r="D227">
         <v>172</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>6.0426450065422896</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>19.358925240380401</v>
       </c>
@@ -4105,8 +4977,14 @@
       <c r="D228">
         <v>173</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>12.1637587379305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>16.347786676316002</v>
       </c>
@@ -4119,8 +4997,14 @@
       <c r="D229">
         <v>174</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>11.708573366249899</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>7.9607469127291699</v>
       </c>
@@ -4133,8 +5017,14 @@
       <c r="D230">
         <v>175</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="H230">
+        <v>1.3829666777988101</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>19.9281152997698</v>
       </c>
@@ -4147,8 +5037,14 @@
       <c r="D231">
         <v>176</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>16.4091689424584</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>14.766503277279</v>
       </c>
@@ -4161,8 +5057,14 @@
       <c r="D232">
         <v>177</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>12.4548221559034</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>9.6023637135187396</v>
       </c>
@@ -4175,8 +5077,14 @@
       <c r="D233">
         <v>178</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="H233">
+        <v>11.418322131312401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>18.157523053033</v>
       </c>
@@ -4189,8 +5097,14 @@
       <c r="D234">
         <v>179</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>16.3550892819189</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>15.7697210993085</v>
       </c>
@@ -4203,8 +5117,14 @@
       <c r="D235">
         <v>180</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>8.1991257013527896</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>22.630999746776698</v>
       </c>
@@ -4217,8 +5137,14 @@
       <c r="D236">
         <v>181</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>9.0121113662392194</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>23.814434880301999</v>
       </c>
@@ -4231,8 +5157,14 @@
       <c r="D237">
         <v>182</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>6.2642924050372999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>23.151923315865599</v>
       </c>
@@ -4245,8 +5177,14 @@
       <c r="D238">
         <v>183</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>7.6377257906639997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>18.998615514664401</v>
       </c>
@@ -4259,8 +5197,14 @@
       <c r="D239">
         <v>184</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>10.566920704461699</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>19.806071294966401</v>
       </c>
@@ -4273,8 +5217,14 @@
       <c r="D240">
         <v>185</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="H240">
+        <v>-0.45202518710828699</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>18.2904742899395</v>
       </c>
@@ -4287,8 +5237,14 @@
       <c r="D241">
         <v>186</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>13.1495398643023</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>6.0675460270472898</v>
       </c>
@@ -4301,8 +5257,14 @@
       <c r="D242">
         <v>187</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <v>0.50817984538721095</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>13.9050817376091</v>
       </c>
@@ -4315,8 +5277,14 @@
       <c r="D243">
         <v>188</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>8.8382108793118199</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>6.5079498745146198</v>
       </c>
@@ -4329,8 +5297,14 @@
       <c r="D244">
         <v>189</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="H244">
+        <v>8.4091816651976092</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>18.125097149894302</v>
       </c>
@@ -4343,8 +5317,14 @@
       <c r="D245">
         <v>190</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>17.987236531587801</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>15.9311156727018</v>
       </c>
@@ -4357,8 +5337,14 @@
       <c r="D246">
         <v>191</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>7.2233140801184996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>22.765611364727899</v>
       </c>
@@ -4371,8 +5357,14 @@
       <c r="D247">
         <v>192</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>5.9552059708012601</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>23.494221698670099</v>
       </c>
@@ -4385,8 +5377,14 @@
       <c r="D248">
         <v>193</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>7.8362217582163796</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>22.424749260856899</v>
       </c>
@@ -4399,8 +5397,14 @@
       <c r="D249">
         <v>194</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>9.1375560022764404</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>17.8372292972746</v>
       </c>
@@ -4413,8 +5417,14 @@
       <c r="D250">
         <v>195</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>11.312543239538099</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>7.6437082858312699</v>
       </c>
@@ -4427,8 +5437,14 @@
       <c r="D251">
         <v>196</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <v>-1.0873787090918099</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>17.436987184342801</v>
       </c>
@@ -4441,8 +5457,14 @@
       <c r="D252">
         <v>197</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>15.0135675851412</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>17.881329890802999</v>
       </c>
@@ -4455,8 +5477,14 @@
       <c r="D253">
         <v>198</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="H253">
+        <v>2.56824425013005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>15.3794568606785</v>
       </c>
@@ -4469,8 +5497,14 @@
       <c r="D254">
         <v>199</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>8.1744081379352806</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>12.495556257435601</v>
       </c>
@@ -4483,8 +5517,14 @@
       <c r="D255">
         <v>200</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="H255">
+        <v>14.374607709151899</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>19.697829337347098</v>
       </c>
@@ -4497,8 +5537,14 @@
       <c r="D256">
         <v>201</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>20.6914989558625</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>15.0247664451599</v>
       </c>
@@ -4511,8 +5557,14 @@
       <c r="D257">
         <v>202</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>7.4666252468972303</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>21.8218173299516</v>
       </c>
@@ -4525,8 +5577,14 @@
       <c r="D258">
         <v>203</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>8.0275442068689404</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>24.324806985400901</v>
       </c>
@@ -4539,8 +5597,14 @@
       <c r="D259">
         <v>204</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>8.3779587247758105</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>21.720489184061599</v>
       </c>
@@ -4553,8 +5617,14 @@
       <c r="D260">
         <v>205</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>6.5351898406369298</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>18.4999309721447</v>
       </c>
@@ -4567,8 +5637,14 @@
       <c r="D261">
         <v>206</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>14.74417826737</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>19.335590676536899</v>
       </c>
@@ -4581,8 +5657,14 @@
       <c r="D262">
         <v>207</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>7.4980309865511696</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>7.0116850080944202</v>
       </c>
@@ -4595,8 +5677,14 @@
       <c r="D263">
         <v>208</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="H263">
+        <v>3.47298904432557</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>18.842486438297001</v>
       </c>
@@ -4609,8 +5697,14 @@
       <c r="D264">
         <v>209</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>13.5007303726413</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>7.5388158843630801</v>
       </c>
@@ -4623,8 +5717,14 @@
       <c r="D265">
         <v>210</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="H265">
+        <v>6.6703609763121303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>15.4011663255237</v>
       </c>
@@ -4637,8 +5737,14 @@
       <c r="D266">
         <v>211</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>8.4998179634802398</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>6.1271087328592904</v>
       </c>
@@ -4651,8 +5757,14 @@
       <c r="D267">
         <v>212</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>14.404442585453101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>15.462044908886799</v>
       </c>
@@ -4665,8 +5777,14 @@
       <c r="D268">
         <v>213</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>22.069470671799198</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>15.3040840171632</v>
       </c>
@@ -4679,8 +5797,14 @@
       <c r="D269">
         <v>214</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>8.2487726712195499</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>20.878253357750999</v>
       </c>
@@ -4693,8 +5817,14 @@
       <c r="D270">
         <v>215</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>7.46014881464124</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>24.123926843915601</v>
       </c>
@@ -4707,8 +5837,14 @@
       <c r="D271">
         <v>216</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>9.2039485993667594</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>21.2685738291059</v>
       </c>
@@ -4721,8 +5857,14 @@
       <c r="D272">
         <v>217</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>8.6246277200245505</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>17.338788055238201</v>
       </c>
@@ -4735,8 +5877,14 @@
       <c r="D273">
         <v>218</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>16.145659165395699</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>19.4456347821917</v>
       </c>
@@ -4749,8 +5897,14 @@
       <c r="D274">
         <v>219</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="H274">
+        <v>4.5596718835543104</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>18.878500120980299</v>
       </c>
@@ -4763,8 +5917,14 @@
       <c r="D275">
         <v>220</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>13.1621099800122</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>7.7954205217815504</v>
       </c>
@@ -4777,8 +5937,14 @@
       <c r="D276">
         <v>221</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="H276">
+        <v>8.2678165162290007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>16.660443760099799</v>
       </c>
@@ -4791,8 +5957,14 @@
       <c r="D277">
         <v>222</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>26.4775046800236</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>12.3704712050301</v>
       </c>
@@ -4805,8 +5977,14 @@
       <c r="D278">
         <v>223</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>13.811108653945899</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>7.4679578145344996</v>
       </c>
@@ -4819,8 +5997,14 @@
       <c r="D279">
         <v>224</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>8.7974982700097897</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>23.972720191592199</v>
       </c>
@@ -4833,8 +6017,14 @@
       <c r="D280">
         <v>225</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>23.6123556252507</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>13.2506018366132</v>
       </c>
@@ -4847,8 +6037,14 @@
       <c r="D281">
         <v>226</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>11.6185581988036</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>12.498644760676701</v>
       </c>
@@ -4861,8 +6057,14 @@
       <c r="D282">
         <v>227</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>8.02741712312001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>15.586811372212001</v>
       </c>
@@ -4875,8 +6077,14 @@
       <c r="D283">
         <v>228</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>7.0187190579612704</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>12.541108063289</v>
       </c>
@@ -4889,8 +6097,14 @@
       <c r="D284">
         <v>229</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>5.8312329731532797</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>17.5952490284329</v>
       </c>
@@ -4903,8 +6117,14 @@
       <c r="D285">
         <v>230</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>16.547257954463799</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>18.4608351482808</v>
       </c>
@@ -4917,8 +6137,14 @@
       <c r="D286">
         <v>231</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="H286">
+        <v>2.4811926501769102</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>18.576754252115801</v>
       </c>
@@ -4931,8 +6157,14 @@
       <c r="D287">
         <v>232</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>11.767032555638</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>6.28379540216355</v>
       </c>
@@ -4945,8 +6177,14 @@
       <c r="D288">
         <v>233</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="F288">
+        <v>2</v>
+      </c>
+      <c r="H288">
+        <v>13.5827698523608</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>7.8561163743336904</v>
       </c>
@@ -4959,8 +6197,14 @@
       <c r="D289">
         <v>234</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="H289">
+        <v>7.6401997781973296</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>12.364332970641501</v>
       </c>
@@ -4973,8 +6217,14 @@
       <c r="D290">
         <v>235</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="F290">
+        <v>2</v>
+      </c>
+      <c r="H290">
+        <v>3.9417316559559099</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>6.7051076434907397</v>
       </c>
@@ -4987,8 +6237,14 @@
       <c r="D291">
         <v>236</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="F291">
+        <v>2</v>
+      </c>
+      <c r="H291">
+        <v>6.4557204286635699</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>8.5989208237942503</v>
       </c>
@@ -5001,8 +6257,14 @@
       <c r="D292">
         <v>237</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="F292">
+        <v>2</v>
+      </c>
+      <c r="H292">
+        <v>8.5893806555133505</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>21.173727334845498</v>
       </c>
@@ -5015,8 +6277,14 @@
       <c r="D293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>4.9191773461714803</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>16.261110850742799</v>
       </c>
@@ -5029,8 +6297,14 @@
       <c r="D294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>19.3398532476673</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>17.511358669825899</v>
       </c>
@@ -5043,8 +6317,14 @@
       <c r="D295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>27.857607113623899</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>21.982128857627298</v>
       </c>
@@ -5057,8 +6337,14 @@
       <c r="D296">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>20.840758050158499</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>16.255166644141699</v>
       </c>
@@ -5071,8 +6357,14 @@
       <c r="D297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>19.736575296559199</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>19.488606157756902</v>
       </c>
@@ -5085,8 +6377,14 @@
       <c r="D298">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>27.081207714137701</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>15.337113335019</v>
       </c>
@@ -5099,8 +6397,14 @@
       <c r="D299">
         <v>6</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>21.616397019013199</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>14.5988823118663</v>
       </c>
@@ -5113,8 +6417,14 @@
       <c r="D300">
         <v>7</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>26.102903156893898</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>17.807208197457399</v>
       </c>
@@ -5127,8 +6437,14 @@
       <c r="D301">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>22.4722933965115</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>13.151535329364499</v>
       </c>
@@ -5141,8 +6457,14 @@
       <c r="D302">
         <v>9</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>23.404800712870799</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>12.3885790052868</v>
       </c>
@@ -5155,8 +6477,14 @@
       <c r="D303">
         <v>10</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>23.715788142558701</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>21.364032660256299</v>
       </c>
@@ -5169,8 +6497,14 @@
       <c r="D304">
         <v>11</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="F304">
+        <v>2</v>
+      </c>
+      <c r="H304">
+        <v>0.56279888228247998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>15.935000328790499</v>
       </c>
@@ -5183,8 +6517,14 @@
       <c r="D305">
         <v>12</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>22.244394541749301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>7.1537944362276997</v>
       </c>
@@ -5197,8 +6537,14 @@
       <c r="D306">
         <v>13</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="F306">
+        <v>2</v>
+      </c>
+      <c r="H306">
+        <v>-3.3787419814761801</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>14.099863688151</v>
       </c>
@@ -5211,8 +6557,14 @@
       <c r="D307">
         <v>14</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>18.826434966576802</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>6.5519551776704299</v>
       </c>
@@ -5225,8 +6577,14 @@
       <c r="D308">
         <v>15</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="H308">
+        <v>0.48872445121740399</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>13.484272820608901</v>
       </c>
@@ -5239,8 +6597,14 @@
       <c r="D309">
         <v>16</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>20.4491629245565</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>19.265474705469</v>
       </c>
@@ -5253,8 +6617,14 @@
       <c r="D310">
         <v>17</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>29.817117347209798</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>20.406993753412699</v>
       </c>
@@ -5267,8 +6637,14 @@
       <c r="D311">
         <v>18</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="F311">
+        <v>2</v>
+      </c>
+      <c r="H311">
+        <v>1.80404914483634</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>15.894773074558801</v>
       </c>
@@ -5281,8 +6657,14 @@
       <c r="D312">
         <v>19</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>21.496266540305001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>18.336242993672599</v>
       </c>
@@ -5295,8 +6677,14 @@
       <c r="D313">
         <v>20</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>26.175423139127901</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>6.8666782379150302</v>
       </c>
@@ -5309,8 +6697,14 @@
       <c r="D314">
         <v>21</v>
       </c>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="F314">
+        <v>2</v>
+      </c>
+      <c r="H314">
+        <v>14.882140442131201</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>6.5893072741372203</v>
       </c>
@@ -5323,8 +6717,14 @@
       <c r="D315">
         <v>22</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="F315">
+        <v>2</v>
+      </c>
+      <c r="H315">
+        <v>-0.76592717894433804</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>16.116648129054401</v>
       </c>
@@ -5337,8 +6737,14 @@
       <c r="D316">
         <v>23</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>23.021310925196399</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>19.393798623766202</v>
       </c>
@@ -5351,8 +6757,14 @@
       <c r="D317">
         <v>24</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>28.2873057253361</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>20.111467842612399</v>
       </c>
@@ -5365,8 +6777,14 @@
       <c r="D318">
         <v>25</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>-4.1879146262391798</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6.6152149155026301</v>
       </c>
@@ -5379,8 +6797,14 @@
       <c r="D319">
         <v>26</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="F319">
+        <v>2</v>
+      </c>
+      <c r="H319">
+        <v>-3.8672634813544802</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>20.757915633065299</v>
       </c>
@@ -5393,8 +6817,14 @@
       <c r="D320">
         <v>27</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>23.581924325879498</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>24.584874516441701</v>
       </c>
@@ -5407,8 +6837,14 @@
       <c r="D321">
         <v>28</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>32.2246479994865</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>20.847694194127001</v>
       </c>
@@ -5421,8 +6857,14 @@
       <c r="D322">
         <v>29</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>-1.1982143639295399</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>6.8530636628468802</v>
       </c>
@@ -5435,8 +6877,14 @@
       <c r="D323">
         <v>30</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="F323">
+        <v>2</v>
+      </c>
+      <c r="H323">
+        <v>-1.44591426772706</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>18.572746163322801</v>
       </c>
@@ -5449,8 +6897,14 @@
       <c r="D324">
         <v>31</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>24.1943741024259</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>30.6652791159493</v>
       </c>
@@ -5463,8 +6917,14 @@
       <c r="D325">
         <v>32</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>30.241810147987401</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>7.6271560646238701</v>
       </c>
@@ -5477,8 +6937,14 @@
       <c r="D326">
         <v>33</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="F326">
+        <v>2</v>
+      </c>
+      <c r="H326">
+        <v>-5.3750522261092897</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>6.9206677845546096</v>
       </c>
@@ -5491,8 +6957,14 @@
       <c r="D327">
         <v>34</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="F327">
+        <v>2</v>
+      </c>
+      <c r="H327">
+        <v>0.34480380019272999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>21.7015771638779</v>
       </c>
@@ -5505,8 +6977,14 @@
       <c r="D328">
         <v>35</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>28.420111132834499</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>17.958537737528399</v>
       </c>
@@ -5519,8 +6997,14 @@
       <c r="D329">
         <v>36</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>22.261006187412001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>7.6997379234858903</v>
       </c>
@@ -5533,8 +7017,14 @@
       <c r="D330">
         <v>37</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="F330">
+        <v>2</v>
+      </c>
+      <c r="H330">
+        <v>-3.8320021727378402</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>7.0243335791996504</v>
       </c>
@@ -5547,8 +7037,14 @@
       <c r="D331">
         <v>38</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="F331">
+        <v>2</v>
+      </c>
+      <c r="H331">
+        <v>-2.5698613897775702</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>14.659678663526201</v>
       </c>
@@ -5561,8 +7057,14 @@
       <c r="D332">
         <v>39</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>27.914784214619001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>27.065642356872502</v>
       </c>
@@ -5575,8 +7077,14 @@
       <c r="D333">
         <v>40</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>25.440964074820101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>20.787038576035201</v>
       </c>
@@ -5589,8 +7097,14 @@
       <c r="D334">
         <v>41</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>20.4079944120326</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>7.7654891581762397</v>
       </c>
@@ -5603,8 +7117,14 @@
       <c r="D335">
         <v>42</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="F335">
+        <v>2</v>
+      </c>
+      <c r="H335">
+        <v>2.8093687081504402</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>15.5107975233168</v>
       </c>
@@ -5617,8 +7137,14 @@
       <c r="D336">
         <v>43</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>25.722325767946302</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>23.276909010750899</v>
       </c>
@@ -5631,8 +7157,14 @@
       <c r="D337">
         <v>44</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>23.479170628896199</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>7.8996464638482902</v>
       </c>
@@ -5645,8 +7177,14 @@
       <c r="D338">
         <v>45</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="F338">
+        <v>2</v>
+      </c>
+      <c r="H338">
+        <v>3.2922565584968901</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>18.2679151353381</v>
       </c>
@@ -5659,8 +7197,14 @@
       <c r="D339">
         <v>46</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>26.015393305867601</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>19.949680964152002</v>
       </c>
@@ -5673,8 +7217,14 @@
       <c r="D340">
         <v>47</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>21.253002118535001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>27.049276488167799</v>
       </c>
@@ -5687,8 +7237,14 @@
       <c r="D341">
         <v>48</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>29.0549788392373</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>23.4472703933715</v>
       </c>
@@ -5701,8 +7257,14 @@
       <c r="D342">
         <v>49</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>25.243271722567499</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>18.850674470265702</v>
       </c>
@@ -5715,8 +7277,14 @@
       <c r="D343">
         <v>50</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>27.400915770180699</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>16.453210490090498</v>
       </c>
@@ -5729,8 +7297,14 @@
       <c r="D344">
         <v>51</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>25.750605731179899</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>22.584423269544299</v>
       </c>
@@ -5743,8 +7317,14 @@
       <c r="D345">
         <v>52</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>31.6095020544109</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>16.112749741036399</v>
       </c>
@@ -5757,8 +7337,14 @@
       <c r="D346">
         <v>53</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>25.736612106990599</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>7.8900138537088997</v>
       </c>
@@ -5771,8 +7357,14 @@
       <c r="D347">
         <v>54</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="F347">
+        <v>2</v>
+      </c>
+      <c r="H347">
+        <v>4.9449906041709202</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>21.4893275896708</v>
       </c>
@@ -5785,8 +7377,14 @@
       <c r="D348">
         <v>55</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>27.4281145562794</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>24.565081096830799</v>
       </c>
@@ -5799,8 +7397,14 @@
       <c r="D349">
         <v>56</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>26.1910129055567</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>4.9744543348039896</v>
       </c>
@@ -5813,8 +7417,14 @@
       <c r="D350">
         <v>57</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="F350">
+        <v>2</v>
+      </c>
+      <c r="H350">
+        <v>12.8551232879529</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>7.5022540433066203</v>
       </c>
@@ -5827,8 +7437,14 @@
       <c r="D351">
         <v>58</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="F351">
+        <v>2</v>
+      </c>
+      <c r="H351">
+        <v>4.4932961901544104</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>6.8657862458910204</v>
       </c>
@@ -5841,8 +7457,14 @@
       <c r="D352">
         <v>59</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="F352">
+        <v>2</v>
+      </c>
+      <c r="H352">
+        <v>-1.3778829686714</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
       <c r="A353">
         <v>18.3581404458908</v>
       </c>
@@ -5855,8 +7477,14 @@
       <c r="D353">
         <v>60</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="F353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>24.505156807199501</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
       <c r="A354">
         <v>14.796625977470701</v>
       </c>
@@ -5869,8 +7497,14 @@
       <c r="D354">
         <v>61</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>25.8057565364543</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
       <c r="A355">
         <v>14.328598527812201</v>
       </c>
@@ -5883,8 +7517,14 @@
       <c r="D355">
         <v>62</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>20.250225172578499</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
       <c r="A356">
         <v>6.6484964688618904</v>
       </c>
@@ -5897,8 +7537,14 @@
       <c r="D356">
         <v>63</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="F356">
+        <v>2</v>
+      </c>
+      <c r="H356">
+        <v>12.761874993600401</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
       <c r="A357">
         <v>23.6562216622488</v>
       </c>
@@ -5911,8 +7557,14 @@
       <c r="D357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>27.312370738445601</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
       <c r="A358">
         <v>16.729623612903399</v>
       </c>
@@ -5925,8 +7577,14 @@
       <c r="D358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>20.2346799671196</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
       <c r="A359">
         <v>25.317075139000298</v>
       </c>
@@ -5939,8 +7597,14 @@
       <c r="D359">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>25.019615608745902</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
       <c r="A360">
         <v>13.621409734090101</v>
       </c>
@@ -5953,8 +7617,14 @@
       <c r="D360">
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>18.179203481062601</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
       <c r="A361">
         <v>21.430326507204999</v>
       </c>
@@ -5967,8 +7637,14 @@
       <c r="D361">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>23.065483303514799</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
       <c r="A362">
         <v>28.832563127790099</v>
       </c>
@@ -5981,8 +7657,14 @@
       <c r="D362">
         <v>5</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>22.441645564893999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -5996,7 +7678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:11">
       <c r="A364">
         <v>106</v>
       </c>
@@ -6008,6 +7690,59 @@
       </c>
       <c r="D364">
         <v>70.637119113573405</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="H365" t="s">
+        <v>10</v>
+      </c>
+      <c r="I365" t="s">
+        <v>11</v>
+      </c>
+      <c r="J365" t="s">
+        <v>12</v>
+      </c>
+      <c r="K365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="H366">
+        <f>COUNTIFS($B2:$B362,$B360,$F2:$F362,$F353)</f>
+        <v>248</v>
+      </c>
+      <c r="I366">
+        <f>COUNTIFS(B2:B362,B360,F2:F362,F356)</f>
+        <v>7</v>
+      </c>
+      <c r="J366">
+        <f>COUNTIFS($B2:$B362,$B356,$F2:$F362,$F353)</f>
+        <v>4</v>
+      </c>
+      <c r="K366">
+        <f>COUNTIFS($B2:$B362,$B356,$F2:$F362,$F356)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="G367" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367">
+        <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"abnormal pipe image",$F$2:$F$362,1)</f>
+        <v>12.62531821953155</v>
+      </c>
+      <c r="I367">
+        <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"abnormal pipe image",$F$2:$F$362,2)</f>
+        <v>4.2416014638372159</v>
+      </c>
+      <c r="J367">
+        <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"normal pipe image",$F$2:$F$362,1)</f>
+        <v>17.242538740221576</v>
+      </c>
+      <c r="K367">
+        <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"normal pipe image",$F$2:$F$362,2)</f>
+        <v>4.872226647835654</v>
       </c>
     </row>
   </sheetData>
